--- a/data/outputs/数学期刊(下)_altmetric/71Milan Journal of Mathematics.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/71Milan Journal of Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE19"/>
+  <dimension ref="A1:CF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1029,6 +1034,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1268,6 +1276,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1509,6 +1520,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2019,6 +2036,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2266,6 +2286,9 @@
         <v>0</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2509,6 +2532,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2762,6 +2788,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3011,6 +3040,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3256,6 +3288,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3509,6 +3544,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3762,6 +3800,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4019,6 +4060,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4268,6 +4312,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4525,6 +4572,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4774,6 +4824,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5023,6 +5076,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5268,6 +5324,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
